--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_Cœur_de_Corrèze/Centre_hospitalier_Cœur_de_Corrèze.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_Cœur_de_Corrèze/Centre_hospitalier_Cœur_de_Corrèze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_C%C5%93ur_de_Corr%C3%A8ze</t>
+          <t>Centre_hospitalier_Cœur_de_Corrèze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier Cœur de Corrèze est un centre hospitalier public situé à Tulle, dans le département de la Corrèze.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_C%C5%93ur_de_Corr%C3%A8ze</t>
+          <t>Centre_hospitalier_Cœur_de_Corrèze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre hospitalier Cœur de Corrèze dessert un bassin de population de 400 000 habitants et un territoire de proximité de 70 000 habitants. En 2014, le centre hospitalier a enregistré 17 114 entrées. En décembre de cette même année, 1 315 personnes y travaillaient[1]. Le Centre Hospitalier Cœur de Corrèze est le troisième pôle de Santé du Limousin. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier Cœur de Corrèze dessert un bassin de population de 400 000 habitants et un territoire de proximité de 70 000 habitants. En 2014, le centre hospitalier a enregistré 17 114 entrées. En décembre de cette même année, 1 315 personnes y travaillaient. Le Centre Hospitalier Cœur de Corrèze est le troisième pôle de Santé du Limousin. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_C%C5%93ur_de_Corr%C3%A8ze</t>
+          <t>Centre_hospitalier_Cœur_de_Corrèze</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1674 : Louis XIV autorise un hôpital général à Tulle : Sainte-Croix de Tulle
 1792 : l'hôpital prend le relais des Visitandines sur le versant sud du Puy Saint-Clair
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_C%C5%93ur_de_Corr%C3%A8ze</t>
+          <t>Centre_hospitalier_Cœur_de_Corrèze</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,9 +602,11 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre hospitalier de Tulle dispense les spécialités médicales et chirurgicales suivantes [2]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier de Tulle dispense les spécialités médicales et chirurgicales suivantes :
 Pôle Médecine
 Cardiologie et pathologies respiratoires,
 Consultations et explorations en cardiologie et pneumologie,
@@ -657,7 +675,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_C%C5%93ur_de_Corr%C3%A8ze</t>
+          <t>Centre_hospitalier_Cœur_de_Corrèze</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -675,7 +693,9 @@
           <t>Différents sites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Site Place-Maschat : Médecine, Chirurgie, Obstétrique
 BUCSI (pôle Urgence-Thorax : urgence, SMUR, cardiologie, soins intensifs cardiologique, pathologies respiratoires, soins intensifs polyvalents)
